--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,12 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>beacon 2 zone salon</t>
   </si>
   <si>
     <t>RSSI</t>
+  </si>
+  <si>
+    <t>caisse 20000 valeurs</t>
+  </si>
+  <si>
+    <t>caisse 2000 valeurs</t>
+  </si>
+  <si>
+    <t>cabine essayage 10 000</t>
+  </si>
+  <si>
+    <t>entrepot table 10 000</t>
+  </si>
+  <si>
+    <t>coin spagheti realité aug</t>
+  </si>
+  <si>
+    <t>centre tablette prise ticket</t>
+  </si>
+  <si>
+    <t>sortie</t>
   </si>
 </sst>
 </file>
@@ -381,23 +402,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -405,8 +447,20 @@
         <f>B2/200</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>D2/200</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>G2/100</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -414,8 +468,16 @@
         <f t="shared" ref="C3:C66" si="0">B3/200</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">D3/200</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">H3/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -423,8 +485,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -432,8 +502,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -441,8 +519,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -450,8 +536,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -459,8 +553,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -468,8 +570,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -477,8 +587,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -486,8 +604,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -495,8 +621,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -504,8 +638,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -513,8 +655,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -522,8 +672,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -531,8 +689,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -540,8 +706,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -549,8 +723,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -558,8 +740,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -567,8 +757,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -576,8 +774,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -585,8 +791,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -594,8 +808,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -603,8 +825,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -612,8 +842,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -621,8 +859,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -630,8 +876,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -639,8 +893,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -648,8 +910,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -657,8 +927,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -666,8 +944,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -675,8 +961,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -684,8 +978,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -693,8 +995,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -702,8 +1012,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -711,8 +1029,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -720,8 +1046,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -729,8 +1063,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -738,8 +1080,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -747,8 +1097,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -756,8 +1114,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -765,8 +1131,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -774,8 +1148,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -783,8 +1165,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -792,8 +1182,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -801,8 +1199,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -810,8 +1216,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -819,8 +1236,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>12</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -828,8 +1256,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>617</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -837,8 +1276,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>777</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -846,8 +1296,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1170</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -855,8 +1316,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>350</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -864,8 +1336,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>339</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -873,8 +1356,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1396</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -882,8 +1376,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>386</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -891,8 +1396,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1621</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -900,8 +1416,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>3001</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -909,8 +1436,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>203</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -918,8 +1456,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>106</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -927,8 +1476,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>12</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -936,8 +1496,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -945,8 +1516,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -954,8 +1536,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -963,8 +1559,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -972,8 +1579,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>115</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -981,35 +1602,108 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>612</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">B67/200</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C67:C130" si="3">B67/200</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="4">D67/200</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="5">H67/100</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>603</v>
+      </c>
+      <c r="P67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f>F68/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>528</v>
+      </c>
+      <c r="P68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F69">
+        <v>28</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G126" si="6">F69/20</f>
+        <v>1.4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>658</v>
+      </c>
+      <c r="P69">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1017,11 +1711,35 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>3.45</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>577</v>
+      </c>
+      <c r="P70">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1029,11 +1747,38 @@
         <v>61</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>511</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>2.5550000000000002</v>
+      </c>
+      <c r="F71">
+        <v>220</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>893</v>
+      </c>
+      <c r="P71">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1041,11 +1786,38 @@
         <v>15</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F72">
+        <v>61</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>3.05</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>633</v>
+      </c>
+      <c r="N72">
+        <v>667</v>
+      </c>
+      <c r="P72">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1053,11 +1825,38 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>1472</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>7.36</v>
+      </c>
+      <c r="F73">
+        <v>130</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>771</v>
+      </c>
+      <c r="N73">
+        <v>261</v>
+      </c>
+      <c r="P73">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1065,11 +1864,41 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>2792</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>13.96</v>
+      </c>
+      <c r="F74">
+        <v>171</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>918</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1020</v>
+      </c>
+      <c r="P74">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1077,11 +1906,41 @@
         <v>2085</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.425000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>4431</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>22.155000000000001</v>
+      </c>
+      <c r="F75">
+        <v>341</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>17.05</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1553</v>
+      </c>
+      <c r="L75">
+        <v>76</v>
+      </c>
+      <c r="N75">
+        <v>1250</v>
+      </c>
+      <c r="P75">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1089,11 +1948,41 @@
         <v>1078</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.39</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>1002</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>5.01</v>
+      </c>
+      <c r="F76">
+        <v>130</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>532</v>
+      </c>
+      <c r="L76">
+        <v>258</v>
+      </c>
+      <c r="N76">
+        <v>473</v>
+      </c>
+      <c r="P76">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1101,11 +1990,41 @@
         <v>2041</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.205</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>4488</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>22.44</v>
+      </c>
+      <c r="F77">
+        <v>451</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="6"/>
+        <v>22.55</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>497</v>
+      </c>
+      <c r="L77">
+        <v>781</v>
+      </c>
+      <c r="N77">
+        <v>467</v>
+      </c>
+      <c r="P77">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1113,11 +2032,41 @@
         <v>699</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4950000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>2062</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>10.31</v>
+      </c>
+      <c r="F78">
+        <v>91</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="6"/>
+        <v>4.55</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>200</v>
+      </c>
+      <c r="L78">
+        <v>1800</v>
+      </c>
+      <c r="N78">
+        <v>307</v>
+      </c>
+      <c r="P78">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1125,11 +2074,41 @@
         <v>827</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1349999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>771</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>3.855</v>
+      </c>
+      <c r="F79">
+        <v>36</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>458</v>
+      </c>
+      <c r="L79">
+        <v>769</v>
+      </c>
+      <c r="N79">
+        <v>526</v>
+      </c>
+      <c r="P79">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1137,11 +2116,41 @@
         <v>1114</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.57</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>375</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>1.875</v>
+      </c>
+      <c r="F80">
+        <v>36</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="6"/>
+        <v>1.8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>45</v>
+      </c>
+      <c r="L80">
+        <v>1287</v>
+      </c>
+      <c r="N80">
+        <v>243</v>
+      </c>
+      <c r="P80">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1149,11 +2158,41 @@
         <v>352</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.76</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>636</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>3.18</v>
+      </c>
+      <c r="F81">
+        <v>68</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>3.4</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>268</v>
+      </c>
+      <c r="L81">
+        <v>969</v>
+      </c>
+      <c r="N81">
+        <v>311</v>
+      </c>
+      <c r="P81">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1161,11 +2200,41 @@
         <v>430</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>178</v>
+      </c>
+      <c r="L82">
+        <v>257</v>
+      </c>
+      <c r="N82">
+        <v>11</v>
+      </c>
+      <c r="P82">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1173,11 +2242,41 @@
         <v>2495</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.475</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>279</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>1.395</v>
+      </c>
+      <c r="F83">
+        <v>37</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="6"/>
+        <v>1.85</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>787</v>
+      </c>
+      <c r="L83">
+        <v>1000</v>
+      </c>
+      <c r="N83">
+        <v>27</v>
+      </c>
+      <c r="P83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1185,11 +2284,41 @@
         <v>2485</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.425000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>249</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>438</v>
+      </c>
+      <c r="L84">
+        <v>747</v>
+      </c>
+      <c r="N84">
+        <v>24</v>
+      </c>
+      <c r="P84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1197,11 +2326,41 @@
         <v>3131</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.654999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>89</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F85">
+        <v>16</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>392</v>
+      </c>
+      <c r="L85">
+        <v>350</v>
+      </c>
+      <c r="N85">
+        <v>51</v>
+      </c>
+      <c r="P85">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1209,11 +2368,41 @@
         <v>2099</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.494999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>108</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="F86">
+        <v>42</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>2.1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>588</v>
+      </c>
+      <c r="L86">
+        <v>493</v>
+      </c>
+      <c r="N86">
+        <v>147</v>
+      </c>
+      <c r="P86">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1221,11 +2410,41 @@
         <v>652</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.26</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>326</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>1.63</v>
+      </c>
+      <c r="F87">
+        <v>33</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>1.65</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>805</v>
+      </c>
+      <c r="L87">
+        <v>215</v>
+      </c>
+      <c r="N87">
+        <v>90</v>
+      </c>
+      <c r="P87">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1233,11 +2452,41 @@
         <v>182</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>110</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>619</v>
+      </c>
+      <c r="L88">
+        <v>235</v>
+      </c>
+      <c r="N88">
+        <v>11</v>
+      </c>
+      <c r="P88">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1245,11 +2494,41 @@
         <v>68</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>149</v>
+      </c>
+      <c r="L89">
+        <v>418</v>
+      </c>
+      <c r="N89">
+        <v>17</v>
+      </c>
+      <c r="P89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1257,11 +2536,38 @@
         <v>30</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>72</v>
+      </c>
+      <c r="L90">
+        <v>155</v>
+      </c>
+      <c r="N90">
+        <v>42</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1269,11 +2575,38 @@
         <v>38</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>59</v>
+      </c>
+      <c r="L91">
+        <v>100</v>
+      </c>
+      <c r="N91">
+        <v>43</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1281,11 +2614,38 @@
         <v>44</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>28</v>
+      </c>
+      <c r="L92">
+        <v>59</v>
+      </c>
+      <c r="N92">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1293,11 +2653,35 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.115</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="L93">
+        <v>29</v>
+      </c>
+      <c r="N93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1305,11 +2689,26 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1317,515 +2716,1099 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C152" si="2">B131/200</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C131:C152" si="7">B131/200</f>
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E152" si="8">D131/200</f>
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I152" si="9">H131/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -1833,8 +3816,40 @@
         <v>20000</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>100</v>
+      </c>
+      <c r="D152">
+        <v>20000</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="F152">
+        <v>2000</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>10000</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>10000</v>
+      </c>
+      <c r="L152">
+        <v>10000</v>
+      </c>
+      <c r="N152">
+        <v>10000</v>
+      </c>
+      <c r="P152">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>beacon 2 zone salon</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>table spagheti</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>entrepot</t>
+  </si>
+  <si>
+    <t>caméra reco facial</t>
   </si>
 </sst>
 </file>
@@ -2935,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q457"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20129,15 +20138,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -20150,78 +20159,90 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20469,7 +20490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -20477,7 +20498,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -20485,7 +20506,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -20493,63 +20514,102 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <v>1871</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <v>2122</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>977</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <v>499</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>466</v>
+      </c>
+      <c r="I70">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <v>620</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>664</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>1058</v>
+      </c>
+      <c r="I72">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>2151</v>
+      </c>
+      <c r="I73">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>883</v>
+      </c>
+      <c r="I74">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -20559,8 +20619,14 @@
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>1398</v>
+      </c>
+      <c r="I75">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -20573,8 +20639,17 @@
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>250</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -20590,8 +20665,17 @@
       <c r="F77">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>347</v>
+      </c>
+      <c r="H77">
+        <v>689</v>
+      </c>
+      <c r="I77">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -20607,8 +20691,17 @@
       <c r="F78">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>223</v>
+      </c>
+      <c r="H78">
+        <v>711</v>
+      </c>
+      <c r="I78">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -20624,8 +20717,17 @@
       <c r="F79">
         <v>351</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>150</v>
+      </c>
+      <c r="H79">
+        <v>927</v>
+      </c>
+      <c r="I79">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -20641,8 +20743,17 @@
       <c r="F80">
         <v>831</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>197</v>
+      </c>
+      <c r="H80">
+        <v>572</v>
+      </c>
+      <c r="I80">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -20658,8 +20769,17 @@
       <c r="F81">
         <v>1069</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>168</v>
+      </c>
+      <c r="H81">
+        <v>97</v>
+      </c>
+      <c r="I81">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -20675,8 +20795,17 @@
       <c r="F82">
         <v>633</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>66</v>
+      </c>
+      <c r="H82">
+        <v>236</v>
+      </c>
+      <c r="I82">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -20692,8 +20821,17 @@
       <c r="F83">
         <v>1574</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>142</v>
+      </c>
+      <c r="H83">
+        <v>1002</v>
+      </c>
+      <c r="I83">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -20709,8 +20847,17 @@
       <c r="F84">
         <v>437</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>70</v>
+      </c>
+      <c r="H84">
+        <v>665</v>
+      </c>
+      <c r="I84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -20726,8 +20873,17 @@
       <c r="F85">
         <v>1040</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>91</v>
+      </c>
+      <c r="H85">
+        <v>1253</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -20743,8 +20899,17 @@
       <c r="F86">
         <v>1795</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>103</v>
+      </c>
+      <c r="H86">
+        <v>1338</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -20760,8 +20925,17 @@
       <c r="F87">
         <v>1015</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>102</v>
+      </c>
+      <c r="H87">
+        <v>130</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -20777,8 +20951,17 @@
       <c r="F88">
         <v>440</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>110</v>
+      </c>
+      <c r="H88">
+        <v>433</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -20794,8 +20977,17 @@
       <c r="F89">
         <v>297</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>118</v>
+      </c>
+      <c r="H89">
+        <v>776</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -20811,8 +21003,14 @@
       <c r="F90">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>58</v>
+      </c>
+      <c r="H90">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -20828,8 +21026,14 @@
       <c r="F91">
         <v>74</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>63</v>
+      </c>
+      <c r="H91">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -20845,8 +21049,14 @@
       <c r="F92">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>56</v>
+      </c>
+      <c r="H92">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -20862,8 +21072,14 @@
       <c r="F93">
         <v>77</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>47</v>
+      </c>
+      <c r="H93">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -20879,8 +21095,14 @@
       <c r="F94">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>25</v>
+      </c>
+      <c r="H94">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -20893,8 +21115,14 @@
       <c r="F95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
